--- a/Tests/baseline_short_sma_5_25_portfolio_excl_XOM.xlsx
+++ b/Tests/baseline_short_sma_5_25_portfolio_excl_XOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Windows\Documents\bt_plat\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502EB3DA-C20C-499C-8459-BE768746321A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32ACCD2-E116-4466-A8D3-5784B9FC05C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:R726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
         <v>29187</v>
       </c>
       <c r="F23">
-        <v>5.3299989999999999</v>
+        <v>5.33</v>
       </c>
       <c r="G23" s="2">
         <v>3.9E-2</v>
@@ -1942,7 +1942,7 @@
         <v>29416</v>
       </c>
       <c r="F27">
-        <v>6.2199989999999996</v>
+        <v>6.22</v>
       </c>
       <c r="G27" s="2">
         <v>7.9899999999999999E-2</v>
@@ -6445,7 +6445,7 @@
         <v>32177</v>
       </c>
       <c r="F106">
-        <v>7.1700010000000001</v>
+        <v>7.17</v>
       </c>
       <c r="G106" s="2">
         <v>-0.21809999999999999</v>
@@ -17104,7 +17104,7 @@
         <v>37018</v>
       </c>
       <c r="F293">
-        <v>42.970010000000002</v>
+        <v>42.97</v>
       </c>
       <c r="G293" s="2">
         <v>4.3499999999999997E-2</v>
@@ -29530,7 +29530,7 @@
         <v>41395</v>
       </c>
       <c r="F511">
-        <v>62.759990000000002</v>
+        <v>62.76</v>
       </c>
       <c r="G511" s="2">
         <v>1.7000000000000001E-2</v>
@@ -29758,7 +29758,7 @@
         <v>41457</v>
       </c>
       <c r="F515">
-        <v>35.529989999999998</v>
+        <v>35.53</v>
       </c>
       <c r="G515" s="2">
         <v>-4.7500000000000001E-2</v>
@@ -31297,7 +31297,7 @@
         <v>41683</v>
       </c>
       <c r="F542">
-        <v>77.779989999999998</v>
+        <v>77.78</v>
       </c>
       <c r="G542" s="2">
         <v>7.4899999999999994E-2</v>
@@ -32836,7 +32836,7 @@
         <v>41873</v>
       </c>
       <c r="F569">
-        <v>58.490009999999998</v>
+        <v>58.49</v>
       </c>
       <c r="G569" s="2">
         <v>4.3299999999999998E-2</v>
@@ -34660,7 +34660,7 @@
         <v>42144</v>
       </c>
       <c r="F601">
-        <v>56.580010000000001</v>
+        <v>56.58</v>
       </c>
       <c r="G601" s="2">
         <v>0.23050000000000001</v>
@@ -35971,7 +35971,7 @@
         <v>42404</v>
       </c>
       <c r="F624">
-        <v>9.1299989999999998</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="G624" s="2">
         <v>5.0599999999999999E-2</v>
@@ -36313,7 +36313,7 @@
         <v>42431</v>
       </c>
       <c r="F630">
-        <v>59.759990000000002</v>
+        <v>59.76</v>
       </c>
       <c r="G630" s="2">
         <v>3.8600000000000002E-2</v>
@@ -41834,8 +41834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894AFE2E-3149-4111-B886-3469509F86CD}">
   <dimension ref="A1:L726"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="O711" sqref="O711"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43954,7 +43954,7 @@
         <v>8.83</v>
       </c>
       <c r="G56" s="2">
-        <v>0.1037</v>
+        <v>0.1038</v>
       </c>
       <c r="H56">
         <v>-102.92</v>
@@ -47944,13 +47944,13 @@
         <v>8.25</v>
       </c>
       <c r="G161" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="H161">
         <v>-27.5</v>
       </c>
       <c r="I161" s="2">
-        <v>-3.1300000000000001E-2</v>
+        <v>-3.1199999999999999E-2</v>
       </c>
       <c r="J161">
         <v>110</v>
